--- a/auto/data/8_競品分析_syntec.xlsx
+++ b/auto/data/8_競品分析_syntec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Syntec 4th axis &amp; Fusion360</t>
+          <t>CNC Router Z Axis. assistant needed to understand the numbers. G54</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anyone here run a Syntec 6MD?</t>
+          <t>Syntec 4th axis &amp; Fusion360</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-08-10T23:49:11.402Z</t>
+          <t>2020-05-24T06:05:25.255Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wlcl14/syntec_4th_axis_fusion360/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/gpklem/cnc_router_z_axis_assistant_needed_to_understand/</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CNC Router Z Axis. assistant needed to understand the numbers. G54</t>
+          <t>Air blow m code.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-03-06T15:00:03.085Z</t>
+          <t>2022-08-10T23:49:11.402Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/feemik/anyone_here_run_a_syntec_6md/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wlcl14/syntec_4th_axis_fusion360/</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Air blow m code.</t>
+          <t>Anyone here run a Syntec 6MD?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-05-24T06:05:25.255Z</t>
+          <t>2023-04-28T11:52:08.663Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gpklem/cnc_router_z_axis_assistant_needed_to_understand/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-04-28T11:52:08.663Z</t>
+          <t>2020-03-06T15:00:03.085Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/feemik/anyone_here_run_a_syntec_6md/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Machinists</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anyone own a Syil X7?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-04-28T12:17:42.321Z</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/131q1tf/does_anyone_here_use_fusion_360_if_so_how_do_you/</t>
         </is>
       </c>
     </row>
